--- a/data/macro/USA/Nonfarm Payrolls.xlsx
+++ b/data/macro/USA/Nonfarm Payrolls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junghunlee/Desktop/Pycharm/AlternativeData/data/macro/USA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CORE16\PycharmProjects\AlternativeData\data\macro\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22841549-867B-9A45-BB8C-13113A46C679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AA95A8-4E83-4820-B48D-99A8A02F61ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PAYEMS" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -69,29 +58,29 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -99,14 +88,14 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -115,7 +104,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -140,33 +129,33 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -447,23 +436,23 @@
   <dimension ref="A1:G674"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H655" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="H658" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J674" sqref="J674"/>
+      <selection pane="bottomRight" activeCell="F675" sqref="F675"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="4" customWidth="1"/>
-    <col min="5" max="7" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -486,7 +475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>25538</v>
       </c>
@@ -525,7 +514,7 @@
         <v>-33000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>25569</v>
       </c>
@@ -564,7 +553,7 @@
         <v>153000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>25600</v>
       </c>
@@ -588,7 +577,7 @@
         <v>-64000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>25628</v>
       </c>
@@ -612,7 +601,7 @@
         <v>128000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>25659</v>
       </c>
@@ -636,7 +625,7 @@
         <v>148000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>25689</v>
       </c>
@@ -660,7 +649,7 @@
         <v>-104000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>25720</v>
       </c>
@@ -684,7 +673,7 @@
         <v>-225000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>25750</v>
       </c>
@@ -708,7 +697,7 @@
         <v>-94000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>25781</v>
       </c>
@@ -732,7 +721,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>25812</v>
       </c>
@@ -756,7 +745,7 @@
         <v>-120000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>25842</v>
       </c>
@@ -780,7 +769,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>25873</v>
       </c>
@@ -804,7 +793,7 @@
         <v>-429000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>25903</v>
       </c>
@@ -828,7 +817,7 @@
         <v>-110000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>25934</v>
       </c>
@@ -852,7 +841,7 @@
         <v>381000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>25965</v>
       </c>
@@ -876,7 +865,7 @@
         <v>76000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>25993</v>
       </c>
@@ -900,7 +889,7 @@
         <v>-60000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>26024</v>
       </c>
@@ -924,7 +913,7 @@
         <v>53000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>26054</v>
       </c>
@@ -948,7 +937,7 @@
         <v>178000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>26085</v>
       </c>
@@ -972,7 +961,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>26115</v>
       </c>
@@ -996,7 +985,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>26146</v>
       </c>
@@ -1020,7 +1009,7 @@
         <v>62000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>26177</v>
       </c>
@@ -1044,7 +1033,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>26207</v>
       </c>
@@ -1068,7 +1057,7 @@
         <v>247000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>26238</v>
       </c>
@@ -1092,7 +1081,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>26268</v>
       </c>
@@ -1116,7 +1105,7 @@
         <v>204000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26299</v>
       </c>
@@ -1140,7 +1129,7 @@
         <v>262000</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26330</v>
       </c>
@@ -1164,7 +1153,7 @@
         <v>337000</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>26359</v>
       </c>
@@ -1188,7 +1177,7 @@
         <v>207000</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>26390</v>
       </c>
@@ -1212,7 +1201,7 @@
         <v>293000</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>26420</v>
       </c>
@@ -1236,7 +1225,7 @@
         <v>218000</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>26451</v>
       </c>
@@ -1260,7 +1249,7 @@
         <v>304000</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>26481</v>
       </c>
@@ -1284,7 +1273,7 @@
         <v>293000</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>26512</v>
       </c>
@@ -1308,7 +1297,7 @@
         <v>-52000</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>26543</v>
       </c>
@@ -1332,7 +1321,7 @@
         <v>430000</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>26573</v>
       </c>
@@ -1356,7 +1345,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>26604</v>
       </c>
@@ -1380,7 +1369,7 @@
         <v>410000</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>26634</v>
       </c>
@@ -1404,7 +1393,7 @@
         <v>294000</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>26665</v>
       </c>
@@ -1428,7 +1417,7 @@
         <v>303000</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>26696</v>
       </c>
@@ -1452,7 +1441,7 @@
         <v>351000</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>26724</v>
       </c>
@@ -1476,7 +1465,7 @@
         <v>396000</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>26755</v>
       </c>
@@ -1500,7 +1489,7 @@
         <v>268000</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>26785</v>
       </c>
@@ -1524,7 +1513,7 @@
         <v>170000</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>26816</v>
       </c>
@@ -1548,7 +1537,7 @@
         <v>191000</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>26846</v>
       </c>
@@ -1572,7 +1561,7 @@
         <v>241000</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>26877</v>
       </c>
@@ -1596,7 +1585,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>26908</v>
       </c>
@@ -1620,7 +1609,7 @@
         <v>255000</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>26938</v>
       </c>
@@ -1644,7 +1633,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>26969</v>
       </c>
@@ -1668,7 +1657,7 @@
         <v>330000</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>26999</v>
       </c>
@@ -1692,7 +1681,7 @@
         <v>306000</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>27030</v>
       </c>
@@ -1716,7 +1705,7 @@
         <v>123000</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>27061</v>
       </c>
@@ -1740,7 +1729,7 @@
         <v>69000</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>27089</v>
       </c>
@@ -1764,7 +1753,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>27120</v>
       </c>
@@ -1788,7 +1777,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>27150</v>
       </c>
@@ -1812,7 +1801,7 @@
         <v>86000</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>27181</v>
       </c>
@@ -1836,7 +1825,7 @@
         <v>165000</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>27211</v>
       </c>
@@ -1860,7 +1849,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>27242</v>
       </c>
@@ -1884,7 +1873,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>27273</v>
       </c>
@@ -1908,7 +1897,7 @@
         <v>-16000</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>27303</v>
       </c>
@@ -1932,7 +1921,7 @@
         <v>-8000</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>27334</v>
       </c>
@@ -1956,7 +1945,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>27364</v>
       </c>
@@ -1980,7 +1969,7 @@
         <v>-368000</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>27395</v>
       </c>
@@ -2004,7 +1993,7 @@
         <v>-604000</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>27426</v>
       </c>
@@ -2028,7 +2017,7 @@
         <v>-360000</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>27454</v>
       </c>
@@ -2052,7 +2041,7 @@
         <v>-378000</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>27485</v>
       </c>
@@ -2076,7 +2065,7 @@
         <v>-270000</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>27515</v>
       </c>
@@ -2115,7 +2104,7 @@
         <v>-188000</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>27546</v>
       </c>
@@ -2139,7 +2128,7 @@
         <v>162000</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>27576</v>
       </c>
@@ -2163,7 +2152,7 @@
         <v>-103000</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>27607</v>
       </c>
@@ -2187,7 +2176,7 @@
         <v>249000</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>27638</v>
       </c>
@@ -2211,7 +2200,7 @@
         <v>386000</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>27668</v>
       </c>
@@ -2235,7 +2224,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>27699</v>
       </c>
@@ -2259,7 +2248,7 @@
         <v>305000</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>27729</v>
       </c>
@@ -2283,7 +2272,7 @@
         <v>145000</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>27760</v>
       </c>
@@ -2307,7 +2296,7 @@
         <v>338000</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>27791</v>
       </c>
@@ -2331,7 +2320,7 @@
         <v>488000</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>27820</v>
       </c>
@@ -2355,7 +2344,7 @@
         <v>311000</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>27851</v>
       </c>
@@ -2379,7 +2368,7 @@
         <v>232000</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>27881</v>
       </c>
@@ -2403,7 +2392,7 @@
         <v>243000</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>27912</v>
       </c>
@@ -2427,7 +2416,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>27942</v>
       </c>
@@ -2451,7 +2440,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>27973</v>
       </c>
@@ -2475,7 +2464,7 @@
         <v>171000</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>28004</v>
       </c>
@@ -2499,7 +2488,7 @@
         <v>157000</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>28034</v>
       </c>
@@ -2523,7 +2512,7 @@
         <v>188000</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>28065</v>
       </c>
@@ -2547,7 +2536,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>28095</v>
       </c>
@@ -2571,7 +2560,7 @@
         <v>332000</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>28126</v>
       </c>
@@ -2595,7 +2584,7 @@
         <v>211000</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>28157</v>
       </c>
@@ -2619,7 +2608,7 @@
         <v>244000</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>28185</v>
       </c>
@@ -2643,7 +2632,7 @@
         <v>296000</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>28216</v>
       </c>
@@ -2667,7 +2656,7 @@
         <v>403000</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>28246</v>
       </c>
@@ -2691,7 +2680,7 @@
         <v>338000</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>28277</v>
       </c>
@@ -2715,7 +2704,7 @@
         <v>360000</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>28307</v>
       </c>
@@ -2739,7 +2728,7 @@
         <v>399000</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>28338</v>
       </c>
@@ -2763,7 +2752,7 @@
         <v>348000</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>28369</v>
       </c>
@@ -2787,7 +2776,7 @@
         <v>238000</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>28399</v>
       </c>
@@ -2811,7 +2800,7 @@
         <v>458000</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>28430</v>
       </c>
@@ -2835,7 +2824,7 @@
         <v>262000</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>28460</v>
       </c>
@@ -2859,7 +2848,7 @@
         <v>379000</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>28491</v>
       </c>
@@ -2883,7 +2872,7 @@
         <v>235000</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>28522</v>
       </c>
@@ -2907,7 +2896,7 @@
         <v>187000</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>28550</v>
       </c>
@@ -2931,7 +2920,7 @@
         <v>353000</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>28581</v>
       </c>
@@ -2955,7 +2944,7 @@
         <v>513000</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>28611</v>
       </c>
@@ -2979,7 +2968,7 @@
         <v>702000</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>28642</v>
       </c>
@@ -3003,7 +2992,7 @@
         <v>346000</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>28672</v>
       </c>
@@ -3027,7 +3016,7 @@
         <v>442000</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>28703</v>
       </c>
@@ -3051,7 +3040,7 @@
         <v>254000</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>28734</v>
       </c>
@@ -3075,7 +3064,7 @@
         <v>276000</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>28764</v>
       </c>
@@ -3099,7 +3088,7 @@
         <v>137000</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>28795</v>
       </c>
@@ -3123,7 +3112,7 @@
         <v>336000</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>28825</v>
       </c>
@@ -3147,7 +3136,7 @@
         <v>437000</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>28856</v>
       </c>
@@ -3171,7 +3160,7 @@
         <v>282000</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>28887</v>
       </c>
@@ -3195,7 +3184,7 @@
         <v>137000</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>28915</v>
       </c>
@@ -3219,7 +3208,7 @@
         <v>244000</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>28946</v>
       </c>
@@ -3243,7 +3232,7 @@
         <v>426000</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>28976</v>
       </c>
@@ -3267,7 +3256,7 @@
         <v>-62000</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>29007</v>
       </c>
@@ -3291,7 +3280,7 @@
         <v>373000</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>29037</v>
       </c>
@@ -3315,7 +3304,7 @@
         <v>318000</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>29068</v>
       </c>
@@ -3339,7 +3328,7 @@
         <v>106000</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>29099</v>
       </c>
@@ -3363,7 +3352,7 @@
         <v>82000</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>29129</v>
       </c>
@@ -3387,7 +3376,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>29160</v>
       </c>
@@ -3411,7 +3400,7 @@
         <v>157000</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>29190</v>
       </c>
@@ -3435,7 +3424,7 @@
         <v>94000</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>29221</v>
       </c>
@@ -3459,7 +3448,7 @@
         <v>97000</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>29252</v>
       </c>
@@ -3483,7 +3472,7 @@
         <v>129000</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>29281</v>
       </c>
@@ -3507,7 +3496,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>29312</v>
       </c>
@@ -3531,7 +3520,7 @@
         <v>112000</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>29342</v>
       </c>
@@ -3555,7 +3544,7 @@
         <v>-144000</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>29373</v>
       </c>
@@ -3579,7 +3568,7 @@
         <v>-431000</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>29403</v>
       </c>
@@ -3603,7 +3592,7 @@
         <v>-320000</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>29434</v>
       </c>
@@ -3627,7 +3616,7 @@
         <v>-262000</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>29465</v>
       </c>
@@ -3666,7 +3655,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>29495</v>
       </c>
@@ -3690,7 +3679,7 @@
         <v>113000</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>29526</v>
       </c>
@@ -3714,7 +3703,7 @@
         <v>281000</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>29556</v>
       </c>
@@ -3738,7 +3727,7 @@
         <v>257000</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>29587</v>
       </c>
@@ -3762,7 +3751,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>29618</v>
       </c>
@@ -3786,7 +3775,7 @@
         <v>94000</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>29646</v>
       </c>
@@ -3810,7 +3799,7 @@
         <v>68000</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>29677</v>
       </c>
@@ -3834,7 +3823,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>29707</v>
       </c>
@@ -3858,7 +3847,7 @@
         <v>73000</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>29738</v>
       </c>
@@ -3882,7 +3871,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>29768</v>
       </c>
@@ -3906,7 +3895,7 @@
         <v>197000</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>29799</v>
       </c>
@@ -3930,7 +3919,7 @@
         <v>112000</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>29830</v>
       </c>
@@ -3954,7 +3943,7 @@
         <v>-36000</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>29860</v>
       </c>
@@ -3978,7 +3967,7 @@
         <v>-87000</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>29891</v>
       </c>
@@ -4002,7 +3991,7 @@
         <v>-99000</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>29921</v>
       </c>
@@ -4026,7 +4015,7 @@
         <v>-209000</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>29952</v>
       </c>
@@ -4050,7 +4039,7 @@
         <v>-278000</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>29983</v>
       </c>
@@ -4074,7 +4063,7 @@
         <v>-326000</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>30011</v>
       </c>
@@ -4098,7 +4087,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>30042</v>
       </c>
@@ -4122,7 +4111,7 @@
         <v>-130000</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>30072</v>
       </c>
@@ -4146,7 +4135,7 @@
         <v>-280000</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>30103</v>
       </c>
@@ -4170,7 +4159,7 @@
         <v>-45000</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>30133</v>
       </c>
@@ -4194,7 +4183,7 @@
         <v>-243000</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>30164</v>
       </c>
@@ -4218,7 +4207,7 @@
         <v>-342000</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>30195</v>
       </c>
@@ -4242,7 +4231,7 @@
         <v>-158000</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>30225</v>
       </c>
@@ -4266,7 +4255,7 @@
         <v>-181000</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>30256</v>
       </c>
@@ -4290,7 +4279,7 @@
         <v>-277000</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>30286</v>
       </c>
@@ -4314,7 +4303,7 @@
         <v>-123000</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>30317</v>
       </c>
@@ -4338,7 +4327,7 @@
         <v>-14000</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>30348</v>
       </c>
@@ -4362,7 +4351,7 @@
         <v>224000</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>30376</v>
       </c>
@@ -4386,7 +4375,7 @@
         <v>-75000</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>30407</v>
       </c>
@@ -4410,7 +4399,7 @@
         <v>172000</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>30437</v>
       </c>
@@ -4434,7 +4423,7 @@
         <v>276000</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>30468</v>
       </c>
@@ -4458,7 +4447,7 @@
         <v>277000</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>30498</v>
       </c>
@@ -4482,7 +4471,7 @@
         <v>379000</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>30529</v>
       </c>
@@ -4506,7 +4495,7 @@
         <v>418000</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>30560</v>
       </c>
@@ -4530,7 +4519,7 @@
         <v>-308000</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>30590</v>
       </c>
@@ -4554,7 +4543,7 @@
         <v>1115000</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>30621</v>
       </c>
@@ -4578,7 +4567,7 @@
         <v>271000</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>30651</v>
       </c>
@@ -4602,7 +4591,7 @@
         <v>353000</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>30682</v>
       </c>
@@ -4626,7 +4615,7 @@
         <v>356000</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>30713</v>
       </c>
@@ -4650,7 +4639,7 @@
         <v>446000</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>30742</v>
       </c>
@@ -4674,7 +4663,7 @@
         <v>481000</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>30773</v>
       </c>
@@ -4698,7 +4687,7 @@
         <v>275000</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>30803</v>
       </c>
@@ -4722,7 +4711,7 @@
         <v>363000</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>30834</v>
       </c>
@@ -4746,7 +4735,7 @@
         <v>308000</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>30864</v>
       </c>
@@ -4770,7 +4759,7 @@
         <v>379000</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>30895</v>
       </c>
@@ -4794,7 +4783,7 @@
         <v>313000</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>30926</v>
       </c>
@@ -4818,7 +4807,7 @@
         <v>242000</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>30956</v>
       </c>
@@ -4842,7 +4831,7 @@
         <v>310000</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>30987</v>
       </c>
@@ -4866,7 +4855,7 @@
         <v>286000</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>31017</v>
       </c>
@@ -4890,7 +4879,7 @@
         <v>349000</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>31048</v>
       </c>
@@ -4914,7 +4903,7 @@
         <v>128000</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>31079</v>
       </c>
@@ -4938,7 +4927,7 @@
         <v>266000</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>31107</v>
       </c>
@@ -4962,7 +4951,7 @@
         <v>124000</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>31138</v>
       </c>
@@ -4986,7 +4975,7 @@
         <v>346000</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>31168</v>
       </c>
@@ -5010,7 +4999,7 @@
         <v>196000</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>31199</v>
       </c>
@@ -5034,7 +5023,7 @@
         <v>274000</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>31229</v>
       </c>
@@ -5058,7 +5047,7 @@
         <v>146000</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>31260</v>
       </c>
@@ -5082,7 +5071,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>31291</v>
       </c>
@@ -5106,7 +5095,7 @@
         <v>193000</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>31321</v>
       </c>
@@ -5130,7 +5119,7 @@
         <v>203000</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>31352</v>
       </c>
@@ -5154,7 +5143,7 @@
         <v>188000</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>31382</v>
       </c>
@@ -5178,7 +5167,7 @@
         <v>209000</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>31413</v>
       </c>
@@ -5217,7 +5206,7 @@
         <v>167000</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>31444</v>
       </c>
@@ -5241,7 +5230,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>31472</v>
       </c>
@@ -5265,7 +5254,7 @@
         <v>107000</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>31503</v>
       </c>
@@ -5289,7 +5278,7 @@
         <v>94000</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>31533</v>
       </c>
@@ -5313,7 +5302,7 @@
         <v>187000</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>31564</v>
       </c>
@@ -5337,7 +5326,7 @@
         <v>127000</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>31594</v>
       </c>
@@ -5361,7 +5350,7 @@
         <v>-94000</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>31625</v>
       </c>
@@ -5385,7 +5374,7 @@
         <v>318000</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>31656</v>
       </c>
@@ -5409,7 +5398,7 @@
         <v>114000</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>31686</v>
       </c>
@@ -5433,7 +5422,7 @@
         <v>347000</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>31717</v>
       </c>
@@ -5457,7 +5446,7 @@
         <v>186000</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>31747</v>
       </c>
@@ -5481,7 +5470,7 @@
         <v>186000</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>31778</v>
       </c>
@@ -5505,7 +5494,7 @@
         <v>205000</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>31809</v>
       </c>
@@ -5529,7 +5518,7 @@
         <v>172000</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>31837</v>
       </c>
@@ -5553,7 +5542,7 @@
         <v>232000</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>31868</v>
       </c>
@@ -5577,7 +5566,7 @@
         <v>249000</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>31898</v>
       </c>
@@ -5601,7 +5590,7 @@
         <v>338000</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>31929</v>
       </c>
@@ -5625,7 +5614,7 @@
         <v>226000</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>31959</v>
       </c>
@@ -5649,7 +5638,7 @@
         <v>172000</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>31990</v>
       </c>
@@ -5673,7 +5662,7 @@
         <v>347000</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>32021</v>
       </c>
@@ -5697,7 +5686,7 @@
         <v>171000</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>32051</v>
       </c>
@@ -5721,7 +5710,7 @@
         <v>228000</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>32082</v>
       </c>
@@ -5745,7 +5734,7 @@
         <v>492000</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>32112</v>
       </c>
@@ -5769,7 +5758,7 @@
         <v>232000</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>32143</v>
       </c>
@@ -5793,7 +5782,7 @@
         <v>294000</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>32174</v>
       </c>
@@ -5817,7 +5806,7 @@
         <v>94000</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>32203</v>
       </c>
@@ -5841,7 +5830,7 @@
         <v>453000</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>32234</v>
       </c>
@@ -5865,7 +5854,7 @@
         <v>276000</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>32264</v>
       </c>
@@ -5889,7 +5878,7 @@
         <v>245000</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>32295</v>
       </c>
@@ -5913,7 +5902,7 @@
         <v>229000</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>32325</v>
       </c>
@@ -5937,7 +5926,7 @@
         <v>363000</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>32356</v>
       </c>
@@ -5961,7 +5950,7 @@
         <v>222000</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>32387</v>
       </c>
@@ -5985,7 +5974,7 @@
         <v>124000</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>32417</v>
       </c>
@@ -6009,7 +5998,7 @@
         <v>339000</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>32448</v>
       </c>
@@ -6033,7 +6022,7 @@
         <v>268000</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>32478</v>
       </c>
@@ -6057,7 +6046,7 @@
         <v>339000</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>32509</v>
       </c>
@@ -6081,7 +6070,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>32540</v>
       </c>
@@ -6105,7 +6094,7 @@
         <v>262000</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>32568</v>
       </c>
@@ -6129,7 +6118,7 @@
         <v>258000</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>32599</v>
       </c>
@@ -6153,7 +6142,7 @@
         <v>193000</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>32629</v>
       </c>
@@ -6177,7 +6166,7 @@
         <v>173000</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>32660</v>
       </c>
@@ -6201,7 +6190,7 @@
         <v>118000</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>32690</v>
       </c>
@@ -6225,7 +6214,7 @@
         <v>116000</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>32721</v>
       </c>
@@ -6249,7 +6238,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>32752</v>
       </c>
@@ -6273,7 +6262,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>32782</v>
       </c>
@@ -6297,7 +6286,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>32813</v>
       </c>
@@ -6321,7 +6310,7 @@
         <v>111000</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>32843</v>
       </c>
@@ -6345,7 +6334,7 @@
         <v>277000</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>32874</v>
       </c>
@@ -6369,7 +6358,7 @@
         <v>96000</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>32905</v>
       </c>
@@ -6393,7 +6382,7 @@
         <v>335000</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>32933</v>
       </c>
@@ -6417,7 +6406,7 @@
         <v>248000</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>32964</v>
       </c>
@@ -6441,7 +6430,7 @@
         <v>215000</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>32994</v>
       </c>
@@ -6465,7 +6454,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>33025</v>
       </c>
@@ -6489,7 +6478,7 @@
         <v>152000</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>33055</v>
       </c>
@@ -6513,7 +6502,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>33086</v>
       </c>
@@ -6537,7 +6526,7 @@
         <v>-28000</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>33117</v>
       </c>
@@ -6561,7 +6550,7 @@
         <v>-221000</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>33147</v>
       </c>
@@ -6585,7 +6574,7 @@
         <v>-88000</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>33178</v>
       </c>
@@ -6609,7 +6598,7 @@
         <v>-159000</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>33208</v>
       </c>
@@ -6633,7 +6622,7 @@
         <v>-150000</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>33239</v>
       </c>
@@ -6657,7 +6646,7 @@
         <v>-56000</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>33270</v>
       </c>
@@ -6681,7 +6670,7 @@
         <v>-120000</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>33298</v>
       </c>
@@ -6705,7 +6694,7 @@
         <v>-305000</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>33329</v>
       </c>
@@ -6729,7 +6718,7 @@
         <v>-158000</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>33359</v>
       </c>
@@ -6768,7 +6757,7 @@
         <v>-211000</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>33390</v>
       </c>
@@ -6792,7 +6781,7 @@
         <v>-125000</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>33420</v>
       </c>
@@ -6816,7 +6805,7 @@
         <v>97000</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>33451</v>
       </c>
@@ -6840,7 +6829,7 @@
         <v>-36000</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>33482</v>
       </c>
@@ -6864,7 +6853,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>33512</v>
       </c>
@@ -6888,7 +6877,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>33543</v>
       </c>
@@ -6912,7 +6901,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>33573</v>
       </c>
@@ -6936,7 +6925,7 @@
         <v>-57000</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>33604</v>
       </c>
@@ -6960,7 +6949,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>33635</v>
       </c>
@@ -6984,7 +6973,7 @@
         <v>53000</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>33664</v>
       </c>
@@ -7008,7 +6997,7 @@
         <v>-63000</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>33695</v>
       </c>
@@ -7032,7 +7021,7 @@
         <v>54000</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>33725</v>
       </c>
@@ -7056,7 +7045,7 @@
         <v>159000</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>33756</v>
       </c>
@@ -7080,7 +7069,7 @@
         <v>127000</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>33786</v>
       </c>
@@ -7104,7 +7093,7 @@
         <v>67000</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>33817</v>
       </c>
@@ -7128,7 +7117,7 @@
         <v>68000</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>33848</v>
       </c>
@@ -7152,7 +7141,7 @@
         <v>141000</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>33878</v>
       </c>
@@ -7176,7 +7165,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>33909</v>
       </c>
@@ -7200,7 +7189,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>33939</v>
       </c>
@@ -7224,7 +7213,7 @@
         <v>138000</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>33970</v>
       </c>
@@ -7248,7 +7237,7 @@
         <v>211000</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>34001</v>
       </c>
@@ -7272,7 +7261,7 @@
         <v>310000</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>34029</v>
       </c>
@@ -7296,7 +7285,7 @@
         <v>242000</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>34060</v>
       </c>
@@ -7320,7 +7309,7 @@
         <v>-49000</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>34090</v>
       </c>
@@ -7344,7 +7333,7 @@
         <v>308000</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>34121</v>
       </c>
@@ -7368,7 +7357,7 @@
         <v>267000</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>34151</v>
       </c>
@@ -7392,7 +7381,7 @@
         <v>181000</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>34182</v>
       </c>
@@ -7416,7 +7405,7 @@
         <v>298000</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>34213</v>
       </c>
@@ -7440,7 +7429,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>34243</v>
       </c>
@@ -7464,7 +7453,7 @@
         <v>239000</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>34274</v>
       </c>
@@ -7488,7 +7477,7 @@
         <v>286000</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>34304</v>
       </c>
@@ -7512,7 +7501,7 @@
         <v>262000</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>34335</v>
       </c>
@@ -7536,7 +7525,7 @@
         <v>312000</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>34366</v>
       </c>
@@ -7560,7 +7549,7 @@
         <v>272000</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>34394</v>
       </c>
@@ -7584,7 +7573,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>34425</v>
       </c>
@@ -7608,7 +7597,7 @@
         <v>465000</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>34455</v>
       </c>
@@ -7632,7 +7621,7 @@
         <v>349000</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>34486</v>
       </c>
@@ -7656,7 +7645,7 @@
         <v>334000</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>34516</v>
       </c>
@@ -7680,7 +7669,7 @@
         <v>316000</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>34547</v>
       </c>
@@ -7704,7 +7693,7 @@
         <v>378000</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>34578</v>
       </c>
@@ -7728,7 +7717,7 @@
         <v>277000</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>34608</v>
       </c>
@@ -7752,7 +7741,7 @@
         <v>352000</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>34639</v>
       </c>
@@ -7776,7 +7765,7 @@
         <v>213000</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>34669</v>
       </c>
@@ -7800,7 +7789,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>34700</v>
       </c>
@@ -7824,7 +7813,7 @@
         <v>275000</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>34731</v>
       </c>
@@ -7848,7 +7837,7 @@
         <v>326000</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>34759</v>
       </c>
@@ -7872,7 +7861,7 @@
         <v>203000</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>34790</v>
       </c>
@@ -7896,7 +7885,7 @@
         <v>222000</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>34820</v>
       </c>
@@ -7920,7 +7909,7 @@
         <v>162000</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>34851</v>
       </c>
@@ -7944,7 +7933,7 @@
         <v>-16000</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>34881</v>
       </c>
@@ -7968,7 +7957,7 @@
         <v>235000</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>34912</v>
       </c>
@@ -7992,7 +7981,7 @@
         <v>102000</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>34943</v>
       </c>
@@ -8016,7 +8005,7 @@
         <v>248000</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>34973</v>
       </c>
@@ -8040,7 +8029,7 @@
         <v>242000</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>35004</v>
       </c>
@@ -8064,7 +8053,7 @@
         <v>154000</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>35034</v>
       </c>
@@ -8088,7 +8077,7 @@
         <v>149000</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>35065</v>
       </c>
@@ -8112,7 +8101,7 @@
         <v>133000</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>35096</v>
       </c>
@@ -8136,7 +8125,7 @@
         <v>-19000</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>35125</v>
       </c>
@@ -8160,7 +8149,7 @@
         <v>431000</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>35156</v>
       </c>
@@ -8184,7 +8173,7 @@
         <v>267000</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>35186</v>
       </c>
@@ -8208,7 +8197,7 @@
         <v>164000</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>35217</v>
       </c>
@@ -8232,7 +8221,7 @@
         <v>321000</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>35247</v>
       </c>
@@ -8256,7 +8245,7 @@
         <v>288000</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>35278</v>
       </c>
@@ -8280,7 +8269,7 @@
         <v>256000</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>35309</v>
       </c>
@@ -8319,7 +8308,7 @@
         <v>172000</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>35339</v>
       </c>
@@ -8343,7 +8332,7 @@
         <v>225000</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>35370</v>
       </c>
@@ -8367,7 +8356,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>35400</v>
       </c>
@@ -8391,7 +8380,7 @@
         <v>298000</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>35431</v>
       </c>
@@ -8415,7 +8404,7 @@
         <v>171000</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>35462</v>
       </c>
@@ -8439,7 +8428,7 @@
         <v>235000</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>35490</v>
       </c>
@@ -8463,7 +8452,7 @@
         <v>303000</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>35521</v>
       </c>
@@ -8487,7 +8476,7 @@
         <v>316000</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>35551</v>
       </c>
@@ -8511,7 +8500,7 @@
         <v>292000</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>35582</v>
       </c>
@@ -8535,7 +8524,7 @@
         <v>259000</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>35612</v>
       </c>
@@ -8559,7 +8548,7 @@
         <v>267000</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>35643</v>
       </c>
@@ -8583,7 +8572,7 @@
         <v>313000</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>35674</v>
       </c>
@@ -8607,7 +8596,7 @@
         <v>-39000</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>35704</v>
       </c>
@@ -8631,7 +8620,7 @@
         <v>512000</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>35735</v>
       </c>
@@ -8655,7 +8644,7 @@
         <v>341000</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>35765</v>
       </c>
@@ -8679,7 +8668,7 @@
         <v>306000</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>35796</v>
       </c>
@@ -8703,7 +8692,7 @@
         <v>303000</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>35827</v>
       </c>
@@ -8727,7 +8716,7 @@
         <v>276000</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>35855</v>
       </c>
@@ -8751,7 +8740,7 @@
         <v>196000</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>35886</v>
       </c>
@@ -8775,7 +8764,7 @@
         <v>151000</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>35916</v>
       </c>
@@ -8799,7 +8788,7 @@
         <v>279000</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>35947</v>
       </c>
@@ -8823,7 +8812,7 @@
         <v>406000</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>35977</v>
       </c>
@@ -8847,7 +8836,7 @@
         <v>218000</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>36008</v>
       </c>
@@ -8871,7 +8860,7 @@
         <v>124000</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>36039</v>
       </c>
@@ -8895,7 +8884,7 @@
         <v>347000</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>36069</v>
       </c>
@@ -8919,7 +8908,7 @@
         <v>223000</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>36100</v>
       </c>
@@ -8943,7 +8932,7 @@
         <v>198000</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>36130</v>
       </c>
@@ -8967,7 +8956,7 @@
         <v>282000</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>36161</v>
       </c>
@@ -8991,7 +8980,7 @@
         <v>347000</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>36192</v>
       </c>
@@ -9015,7 +9004,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>36220</v>
       </c>
@@ -9039,7 +9028,7 @@
         <v>411000</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>36251</v>
       </c>
@@ -9063,7 +9052,7 @@
         <v>107000</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>36281</v>
       </c>
@@ -9087,7 +9076,7 @@
         <v>376000</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>36312</v>
       </c>
@@ -9111,7 +9100,7 @@
         <v>211000</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>36342</v>
       </c>
@@ -9135,7 +9124,7 @@
         <v>261000</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>36373</v>
       </c>
@@ -9159,7 +9148,7 @@
         <v>319000</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>36404</v>
       </c>
@@ -9183,7 +9172,7 @@
         <v>166000</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>36434</v>
       </c>
@@ -9207,7 +9196,7 @@
         <v>214000</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>36465</v>
       </c>
@@ -9231,7 +9220,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>36495</v>
       </c>
@@ -9255,7 +9244,7 @@
         <v>292000</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>36526</v>
       </c>
@@ -9279,7 +9268,7 @@
         <v>295000</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>36557</v>
       </c>
@@ -9303,7 +9292,7 @@
         <v>231000</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>36586</v>
       </c>
@@ -9327,7 +9316,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>36617</v>
       </c>
@@ -9351,7 +9340,7 @@
         <v>467000</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>36647</v>
       </c>
@@ -9375,7 +9364,7 @@
         <v>287000</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>36678</v>
       </c>
@@ -9399,7 +9388,7 @@
         <v>226000</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>36708</v>
       </c>
@@ -9423,7 +9412,7 @@
         <v>-47000</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>36739</v>
       </c>
@@ -9447,7 +9436,7 @@
         <v>179000</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>36770</v>
       </c>
@@ -9471,7 +9460,7 @@
         <v>-15000</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>36800</v>
       </c>
@@ -9495,7 +9484,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>36831</v>
       </c>
@@ -9519,7 +9508,7 @@
         <v>-15000</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>36861</v>
       </c>
@@ -9543,7 +9532,7 @@
         <v>225000</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>36892</v>
       </c>
@@ -9567,7 +9556,7 @@
         <v>142000</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>36923</v>
       </c>
@@ -9591,7 +9580,7 @@
         <v>-27000</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>36951</v>
       </c>
@@ -9615,7 +9604,7 @@
         <v>71000</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>36982</v>
       </c>
@@ -9639,7 +9628,7 @@
         <v>-25000</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>37012</v>
       </c>
@@ -9663,7 +9652,7 @@
         <v>-282000</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>37043</v>
       </c>
@@ -9687,7 +9676,7 @@
         <v>-38000</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>37073</v>
       </c>
@@ -9711,7 +9700,7 @@
         <v>-131000</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>37104</v>
       </c>
@@ -9735,7 +9724,7 @@
         <v>-112000</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>37135</v>
       </c>
@@ -9759,7 +9748,7 @@
         <v>-160000</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>37165</v>
       </c>
@@ -9783,7 +9772,7 @@
         <v>-241000</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>37196</v>
       </c>
@@ -9807,7 +9796,7 @@
         <v>-325000</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>37226</v>
       </c>
@@ -9831,7 +9820,7 @@
         <v>-294000</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>37257</v>
       </c>
@@ -9870,7 +9859,7 @@
         <v>-171000</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>37288</v>
       </c>
@@ -9894,7 +9883,7 @@
         <v>-139000</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>37316</v>
       </c>
@@ -9918,7 +9907,7 @@
         <v>-134000</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>37347</v>
       </c>
@@ -9942,7 +9931,7 @@
         <v>-20000</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>37377</v>
       </c>
@@ -9966,7 +9955,7 @@
         <v>-80000</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>37408</v>
       </c>
@@ -9990,7 +9979,7 @@
         <v>-8000</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>37438</v>
       </c>
@@ -10014,7 +10003,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>37469</v>
       </c>
@@ -10038,7 +10027,7 @@
         <v>-84000</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>37500</v>
       </c>
@@ -10062,7 +10051,7 @@
         <v>-16000</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>37530</v>
       </c>
@@ -10086,7 +10075,7 @@
         <v>-60000</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>37561</v>
       </c>
@@ -10110,7 +10099,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>37591</v>
       </c>
@@ -10134,7 +10123,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>37622</v>
       </c>
@@ -10158,7 +10147,7 @@
         <v>-157000</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>37653</v>
       </c>
@@ -10182,7 +10171,7 @@
         <v>91000</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>37681</v>
       </c>
@@ -10206,7 +10195,7 @@
         <v>-151000</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>37712</v>
       </c>
@@ -10230,7 +10219,7 @@
         <v>-210000</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>37742</v>
       </c>
@@ -10254,7 +10243,7 @@
         <v>-44000</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>37773</v>
       </c>
@@ -10278,7 +10267,7 @@
         <v>-10000</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>37803</v>
       </c>
@@ -10302,7 +10291,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>37834</v>
       </c>
@@ -10326,7 +10315,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>37865</v>
       </c>
@@ -10350,7 +10339,7 @@
         <v>-43000</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>37895</v>
       </c>
@@ -10374,7 +10363,7 @@
         <v>103000</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>37926</v>
       </c>
@@ -10398,7 +10387,7 @@
         <v>196000</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>37956</v>
       </c>
@@ -10422,7 +10411,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>37987</v>
       </c>
@@ -10446,7 +10435,7 @@
         <v>123000</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>38018</v>
       </c>
@@ -10470,7 +10459,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>38047</v>
       </c>
@@ -10494,7 +10483,7 @@
         <v>46000</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>38078</v>
       </c>
@@ -10518,7 +10507,7 @@
         <v>331000</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>38108</v>
       </c>
@@ -10542,7 +10531,7 @@
         <v>248000</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>38139</v>
       </c>
@@ -10566,7 +10555,7 @@
         <v>308000</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>38169</v>
       </c>
@@ -10590,7 +10579,7 @@
         <v>74000</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>38200</v>
       </c>
@@ -10614,7 +10603,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>38231</v>
       </c>
@@ -10638,7 +10627,7 @@
         <v>132000</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>38261</v>
       </c>
@@ -10662,7 +10651,7 @@
         <v>162000</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>38292</v>
       </c>
@@ -10686,7 +10675,7 @@
         <v>345000</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>38322</v>
       </c>
@@ -10710,7 +10699,7 @@
         <v>64000</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>38353</v>
       </c>
@@ -10734,7 +10723,7 @@
         <v>129000</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>38384</v>
       </c>
@@ -10758,7 +10747,7 @@
         <v>134000</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>38412</v>
       </c>
@@ -10782,7 +10771,7 @@
         <v>239000</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>38443</v>
       </c>
@@ -10806,7 +10795,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>38473</v>
       </c>
@@ -10830,7 +10819,7 @@
         <v>363000</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>38504</v>
       </c>
@@ -10854,7 +10843,7 @@
         <v>176000</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>38534</v>
       </c>
@@ -10878,7 +10867,7 @@
         <v>243000</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>38565</v>
       </c>
@@ -10902,7 +10891,7 @@
         <v>375000</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>38596</v>
       </c>
@@ -10926,7 +10915,7 @@
         <v>196000</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>38626</v>
       </c>
@@ -10950,7 +10939,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>38657</v>
       </c>
@@ -10974,7 +10963,7 @@
         <v>84000</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>38687</v>
       </c>
@@ -10998,7 +10987,7 @@
         <v>337000</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>38718</v>
       </c>
@@ -11022,7 +11011,7 @@
         <v>158000</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>38749</v>
       </c>
@@ -11046,7 +11035,7 @@
         <v>277000</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>38777</v>
       </c>
@@ -11070,7 +11059,7 @@
         <v>315000</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>38808</v>
       </c>
@@ -11094,7 +11083,7 @@
         <v>281000</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>38838</v>
       </c>
@@ -11118,7 +11107,7 @@
         <v>182000</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>38869</v>
       </c>
@@ -11142,7 +11131,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>38899</v>
       </c>
@@ -11166,7 +11155,7 @@
         <v>77000</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>38930</v>
       </c>
@@ -11190,7 +11179,7 @@
         <v>206000</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>38961</v>
       </c>
@@ -11214,7 +11203,7 @@
         <v>185000</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>38991</v>
       </c>
@@ -11238,7 +11227,7 @@
         <v>156000</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>39022</v>
       </c>
@@ -11262,7 +11251,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>39052</v>
       </c>
@@ -11286,7 +11275,7 @@
         <v>209000</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>39083</v>
       </c>
@@ -11310,7 +11299,7 @@
         <v>172000</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>39114</v>
       </c>
@@ -11334,7 +11323,7 @@
         <v>111000</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>39142</v>
       </c>
@@ -11358,7 +11347,7 @@
         <v>97000</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>39173</v>
       </c>
@@ -11382,7 +11371,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>39203</v>
       </c>
@@ -11421,7 +11410,7 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>39234</v>
       </c>
@@ -11445,7 +11434,7 @@
         <v>157000</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>39264</v>
       </c>
@@ -11469,7 +11458,7 @@
         <v>132000</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>39295</v>
       </c>
@@ -11493,7 +11482,7 @@
         <v>92000</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>39326</v>
       </c>
@@ -11517,7 +11506,7 @@
         <v>-4000</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>39356</v>
       </c>
@@ -11541,7 +11530,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
         <v>39387</v>
       </c>
@@ -11565,7 +11554,7 @@
         <v>166000</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>39417</v>
       </c>
@@ -11589,7 +11578,7 @@
         <v>94000</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>39448</v>
       </c>
@@ -11613,7 +11602,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>39479</v>
       </c>
@@ -11637,7 +11626,7 @@
         <v>-17000</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>39508</v>
       </c>
@@ -11661,7 +11650,7 @@
         <v>-63000</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <v>39539</v>
       </c>
@@ -11685,7 +11674,7 @@
         <v>-80000</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
         <v>39569</v>
       </c>
@@ -11709,7 +11698,7 @@
         <v>-20000</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
         <v>39600</v>
       </c>
@@ -11733,7 +11722,7 @@
         <v>-49000</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="2">
         <v>39630</v>
       </c>
@@ -11757,7 +11746,7 @@
         <v>-62000</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>39661</v>
       </c>
@@ -11781,7 +11770,7 @@
         <v>-51000</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>39692</v>
       </c>
@@ -11805,7 +11794,7 @@
         <v>-84000</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>39722</v>
       </c>
@@ -11829,7 +11818,7 @@
         <v>-159000</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>39753</v>
       </c>
@@ -11853,7 +11842,7 @@
         <v>-240000</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>39783</v>
       </c>
@@ -11877,7 +11866,7 @@
         <v>-533000</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="2">
         <v>39814</v>
       </c>
@@ -11901,7 +11890,7 @@
         <v>-524000</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="2">
         <v>39845</v>
       </c>
@@ -11925,7 +11914,7 @@
         <v>-598000</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>39873</v>
       </c>
@@ -11949,7 +11938,7 @@
         <v>-651000</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>39904</v>
       </c>
@@ -11973,7 +11962,7 @@
         <v>-699000</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>39934</v>
       </c>
@@ -11997,7 +11986,7 @@
         <v>-504000</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>39965</v>
       </c>
@@ -12021,7 +12010,7 @@
         <v>-322000</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="2">
         <v>39995</v>
       </c>
@@ -12045,7 +12034,7 @@
         <v>-443000</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>40026</v>
       </c>
@@ -12069,7 +12058,7 @@
         <v>-276000</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>40057</v>
       </c>
@@ -12093,7 +12082,7 @@
         <v>-201000</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>40087</v>
       </c>
@@ -12117,7 +12106,7 @@
         <v>-219000</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>40118</v>
       </c>
@@ -12141,7 +12130,7 @@
         <v>-111000</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="2">
         <v>40148</v>
       </c>
@@ -12165,7 +12154,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>40179</v>
       </c>
@@ -12189,7 +12178,7 @@
         <v>-150000</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>40210</v>
       </c>
@@ -12213,7 +12202,7 @@
         <v>-26000</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>40238</v>
       </c>
@@ -12237,7 +12226,7 @@
         <v>-14000</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="2">
         <v>40269</v>
       </c>
@@ -12261,7 +12250,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
         <v>40299</v>
       </c>
@@ -12285,7 +12274,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
         <v>40330</v>
       </c>
@@ -12309,7 +12298,7 @@
         <v>433000</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>40360</v>
       </c>
@@ -12333,7 +12322,7 @@
         <v>-221000</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>40391</v>
       </c>
@@ -12357,7 +12346,7 @@
         <v>-54000</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>40422</v>
       </c>
@@ -12381,7 +12370,7 @@
         <v>-57000</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="2">
         <v>40452</v>
       </c>
@@ -12405,7 +12394,7 @@
         <v>-41000</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>40483</v>
       </c>
@@ -12429,7 +12418,7 @@
         <v>172000</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>40513</v>
       </c>
@@ -12453,7 +12442,7 @@
         <v>71000</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>40544</v>
       </c>
@@ -12477,7 +12466,7 @@
         <v>121000</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>40575</v>
       </c>
@@ -12501,7 +12490,7 @@
         <v>63000</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
         <v>40603</v>
       </c>
@@ -12525,7 +12514,7 @@
         <v>194000</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
         <v>40634</v>
       </c>
@@ -12549,7 +12538,7 @@
         <v>221000</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
         <v>40664</v>
       </c>
@@ -12573,7 +12562,7 @@
         <v>232000</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="2">
         <v>40695</v>
       </c>
@@ -12597,7 +12586,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="2">
         <v>40725</v>
       </c>
@@ -12621,7 +12610,7 @@
         <v>46000</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="2">
         <v>40756</v>
       </c>
@@ -12645,7 +12634,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="2">
         <v>40787</v>
       </c>
@@ -12669,7 +12658,7 @@
         <v>57000</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
         <v>40817</v>
       </c>
@@ -12693,7 +12682,7 @@
         <v>158000</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="2">
         <v>40848</v>
       </c>
@@ -12717,7 +12706,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="2">
         <v>40878</v>
       </c>
@@ -12741,7 +12730,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="2">
         <v>40909</v>
       </c>
@@ -12765,7 +12754,7 @@
         <v>203000</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="2">
         <v>40940</v>
       </c>
@@ -12789,7 +12778,7 @@
         <v>284000</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="2">
         <v>40969</v>
       </c>
@@ -12813,7 +12802,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="2">
         <v>41000</v>
       </c>
@@ -12837,7 +12826,7 @@
         <v>154000</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="2">
         <v>41030</v>
       </c>
@@ -12861,7 +12850,7 @@
         <v>77000</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="2">
         <v>41061</v>
       </c>
@@ -12885,7 +12874,7 @@
         <v>77000</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="2">
         <v>41091</v>
       </c>
@@ -12909,7 +12898,7 @@
         <v>64000</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="2">
         <v>41122</v>
       </c>
@@ -12933,7 +12922,7 @@
         <v>141000</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="2">
         <v>41153</v>
       </c>
@@ -12972,7 +12961,7 @@
         <v>142000</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="2">
         <v>41183</v>
       </c>
@@ -12996,7 +12985,7 @@
         <v>148000</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="2">
         <v>41214</v>
       </c>
@@ -13020,7 +13009,7 @@
         <v>138000</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="2">
         <v>41244</v>
       </c>
@@ -13044,7 +13033,7 @@
         <v>161000</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="2">
         <v>41275</v>
       </c>
@@ -13068,7 +13057,7 @@
         <v>196000</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="2">
         <v>41306</v>
       </c>
@@ -13092,7 +13081,7 @@
         <v>119000</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="2">
         <v>41334</v>
       </c>
@@ -13116,7 +13105,7 @@
         <v>268000</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="2">
         <v>41365</v>
       </c>
@@ -13140,7 +13129,7 @@
         <v>138000</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="2">
         <v>41395</v>
       </c>
@@ -13164,7 +13153,7 @@
         <v>149000</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="2">
         <v>41426</v>
       </c>
@@ -13188,7 +13177,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="2">
         <v>41456</v>
       </c>
@@ -13212,7 +13201,7 @@
         <v>188000</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="2">
         <v>41487</v>
       </c>
@@ -13236,7 +13225,7 @@
         <v>104000</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="2">
         <v>41518</v>
       </c>
@@ -13260,7 +13249,7 @@
         <v>193000</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="2">
         <v>41548</v>
       </c>
@@ -13284,7 +13273,7 @@
         <v>163000</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="2">
         <v>41579</v>
       </c>
@@ -13308,7 +13297,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="2">
         <v>41609</v>
       </c>
@@ -13332,7 +13321,7 @@
         <v>241000</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="2">
         <v>41640</v>
       </c>
@@ -13356,7 +13345,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="2">
         <v>41671</v>
       </c>
@@ -13380,7 +13369,7 @@
         <v>129000</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" s="2">
         <v>41699</v>
       </c>
@@ -13404,7 +13393,7 @@
         <v>197000</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" s="2">
         <v>41730</v>
       </c>
@@ -13428,7 +13417,7 @@
         <v>203000</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" s="2">
         <v>41760</v>
       </c>
@@ -13452,7 +13441,7 @@
         <v>282000</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" s="2">
         <v>41791</v>
       </c>
@@ -13476,7 +13465,7 @@
         <v>224000</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" s="2">
         <v>41821</v>
       </c>
@@ -13500,7 +13489,7 @@
         <v>298000</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" s="2">
         <v>41852</v>
       </c>
@@ -13524,7 +13513,7 @@
         <v>212000</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" s="2">
         <v>41883</v>
       </c>
@@ -13548,7 +13537,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" s="2">
         <v>41913</v>
       </c>
@@ -13572,7 +13561,7 @@
         <v>256000</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" s="2">
         <v>41944</v>
       </c>
@@ -13596,7 +13585,7 @@
         <v>243000</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" s="2">
         <v>41974</v>
       </c>
@@ -13620,7 +13609,7 @@
         <v>353000</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" s="2">
         <v>42005</v>
       </c>
@@ -13644,7 +13633,7 @@
         <v>329000</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" s="2">
         <v>42036</v>
       </c>
@@ -13668,7 +13657,7 @@
         <v>239000</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" s="2">
         <v>42064</v>
       </c>
@@ -13692,7 +13681,7 @@
         <v>264000</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" s="2">
         <v>42095</v>
       </c>
@@ -13716,7 +13705,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" s="2">
         <v>42125</v>
       </c>
@@ -13740,7 +13729,7 @@
         <v>221000</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" s="2">
         <v>42156</v>
       </c>
@@ -13764,7 +13753,7 @@
         <v>254000</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" s="2">
         <v>42186</v>
       </c>
@@ -13788,7 +13777,7 @@
         <v>231000</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" s="2">
         <v>42217</v>
       </c>
@@ -13812,7 +13801,7 @@
         <v>245000</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" s="2">
         <v>42248</v>
       </c>
@@ -13836,7 +13825,7 @@
         <v>136000</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" s="2">
         <v>42278</v>
       </c>
@@ -13860,7 +13849,7 @@
         <v>137000</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" s="2">
         <v>42309</v>
       </c>
@@ -13884,7 +13873,7 @@
         <v>298000</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" s="2">
         <v>42339</v>
       </c>
@@ -13908,7 +13897,7 @@
         <v>252000</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" s="2">
         <v>42370</v>
       </c>
@@ -13932,7 +13921,7 @@
         <v>262000</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" s="2">
         <v>42401</v>
       </c>
@@ -13956,7 +13945,7 @@
         <v>172000</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" s="2">
         <v>42430</v>
       </c>
@@ -13980,7 +13969,7 @@
         <v>245000</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" s="2">
         <v>42461</v>
       </c>
@@ -14004,7 +13993,7 @@
         <v>208000</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" s="2">
         <v>42491</v>
       </c>
@@ -14028,7 +14017,7 @@
         <v>123000</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" s="2">
         <v>42522</v>
       </c>
@@ -14052,7 +14041,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" s="2">
         <v>42552</v>
       </c>
@@ -14076,7 +14065,7 @@
         <v>292000</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" s="2">
         <v>42583</v>
       </c>
@@ -14100,7 +14089,7 @@
         <v>275000</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" s="2">
         <v>42614</v>
       </c>
@@ -14124,7 +14113,7 @@
         <v>167000</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" s="2">
         <v>42644</v>
       </c>
@@ -14148,7 +14137,7 @@
         <v>191000</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" s="2">
         <v>42675</v>
       </c>
@@ -14172,7 +14161,7 @@
         <v>142000</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" s="2">
         <v>42705</v>
       </c>
@@ -14196,7 +14185,7 @@
         <v>204000</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" s="2">
         <v>42736</v>
       </c>
@@ -14220,7 +14209,7 @@
         <v>157000</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" s="2">
         <v>42767</v>
       </c>
@@ -14244,7 +14233,7 @@
         <v>238000</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" s="2">
         <v>42795</v>
       </c>
@@ -14268,7 +14257,7 @@
         <v>219000</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" s="2">
         <v>42826</v>
       </c>
@@ -14292,7 +14281,7 @@
         <v>79000</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" s="2">
         <v>42856</v>
       </c>
@@ -14316,7 +14305,7 @@
         <v>174000</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" s="2">
         <v>42887</v>
       </c>
@@ -14340,7 +14329,7 @@
         <v>152000</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" s="2">
         <v>42917</v>
       </c>
@@ -14364,7 +14353,7 @@
         <v>231000</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" s="2">
         <v>42948</v>
       </c>
@@ -14388,7 +14377,7 @@
         <v>189000</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" s="2">
         <v>42979</v>
       </c>
@@ -14412,7 +14401,7 @@
         <v>169000</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" s="2">
         <v>43009</v>
       </c>
@@ -14436,7 +14425,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" s="2">
         <v>43040</v>
       </c>
@@ -14460,7 +14449,7 @@
         <v>244000</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" s="2">
         <v>43070</v>
       </c>
@@ -14484,7 +14473,7 @@
         <v>252000</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" s="2">
         <v>43101</v>
       </c>
@@ -14523,7 +14512,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" s="2">
         <v>43132</v>
       </c>
@@ -14547,7 +14536,7 @@
         <v>239000</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" s="2">
         <v>43160</v>
       </c>
@@ -14571,7 +14560,7 @@
         <v>326000</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" s="2">
         <v>43191</v>
       </c>
@@ -14595,7 +14584,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" s="2">
         <v>43221</v>
       </c>
@@ -14619,7 +14608,7 @@
         <v>159000</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" s="2">
         <v>43252</v>
       </c>
@@ -14643,7 +14632,7 @@
         <v>244000</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" s="2">
         <v>43282</v>
       </c>
@@ -14667,7 +14656,7 @@
         <v>248000</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" s="2">
         <v>43313</v>
       </c>
@@ -14691,7 +14680,7 @@
         <v>147000</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" s="2">
         <v>43344</v>
       </c>
@@ -14715,7 +14704,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" s="2">
         <v>43374</v>
       </c>
@@ -14739,7 +14728,7 @@
         <v>118000</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" s="2">
         <v>43405</v>
       </c>
@@ -14763,7 +14752,7 @@
         <v>237000</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" s="2">
         <v>43435</v>
       </c>
@@ -14787,7 +14776,7 @@
         <v>176000</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" s="2">
         <v>43466</v>
       </c>
@@ -14811,7 +14800,7 @@
         <v>222000</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" s="2">
         <v>43497</v>
       </c>
@@ -14835,7 +14824,7 @@
         <v>311000</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" s="2">
         <v>43525</v>
       </c>
@@ -14859,7 +14848,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" s="2">
         <v>43556</v>
       </c>
@@ -14883,7 +14872,7 @@
         <v>189000</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" s="2">
         <v>43586</v>
       </c>
@@ -14907,7 +14896,7 @@
         <v>224000</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" s="2">
         <v>43617</v>
       </c>
@@ -14931,7 +14920,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" s="2">
         <v>43647</v>
       </c>
@@ -14955,7 +14944,7 @@
         <v>193000</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" s="2">
         <v>43678</v>
       </c>
@@ -14979,7 +14968,7 @@
         <v>159000</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" s="2">
         <v>43709</v>
       </c>
@@ -15003,7 +14992,7 @@
         <v>168000</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" s="2">
         <v>43739</v>
       </c>
@@ -15027,7 +15016,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" s="2">
         <v>43770</v>
       </c>
@@ -15051,7 +15040,7 @@
         <v>156000</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" s="2">
         <v>43800</v>
       </c>
@@ -15075,7 +15064,7 @@
         <v>256000</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" s="2">
         <v>43831</v>
       </c>
@@ -15099,7 +15088,7 @@
         <v>147000</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" s="2">
         <v>43862</v>
       </c>
@@ -15123,7 +15112,7 @@
         <v>273000</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" s="2">
         <v>43891</v>
       </c>
@@ -15147,7 +15136,7 @@
         <v>275000</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" s="2">
         <v>43922</v>
       </c>
@@ -15171,7 +15160,7 @@
         <v>-870000</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" s="2">
         <v>43952</v>
       </c>
@@ -15195,7 +15184,7 @@
         <v>-20687000</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" s="2">
         <v>43983</v>
       </c>
@@ -15219,7 +15208,7 @@
         <v>2699000</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" s="2">
         <v>44013</v>
       </c>
@@ -15243,7 +15232,7 @@
         <v>4791000</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" s="2">
         <v>44044</v>
       </c>
@@ -15267,7 +15256,7 @@
         <v>1734000</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" s="2">
         <v>44075</v>
       </c>
@@ -15291,7 +15280,7 @@
         <v>1489000</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" s="2">
         <v>44105</v>
       </c>
@@ -15315,7 +15304,7 @@
         <v>672000</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" s="2">
         <v>44136</v>
       </c>
@@ -15339,7 +15328,7 @@
         <v>610000</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" s="2">
         <v>44166</v>
       </c>
@@ -15363,7 +15352,7 @@
         <v>336000</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" s="2">
         <v>44197</v>
       </c>
@@ -15387,7 +15376,7 @@
         <v>-227000</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" s="2">
         <v>44228</v>
       </c>
@@ -15411,7 +15400,7 @@
         <v>166000</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" s="2">
         <v>44256</v>
       </c>
@@ -15435,7 +15424,7 @@
         <v>468000</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" s="2">
         <v>44287</v>
       </c>
@@ -15459,7 +15448,7 @@
         <v>770000</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" s="2">
         <v>44317</v>
       </c>
@@ -15483,7 +15472,7 @@
         <v>278000</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" s="2">
         <v>44348</v>
       </c>
@@ -15507,7 +15496,7 @@
         <v>583000</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" s="2">
         <v>44378</v>
       </c>
@@ -15531,7 +15520,7 @@
         <v>938000</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" s="2">
         <v>44409</v>
       </c>
@@ -15555,7 +15544,7 @@
         <v>1053000</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" s="2">
         <v>44440</v>
       </c>
@@ -15579,7 +15568,7 @@
         <v>366000</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" s="2">
         <v>44470</v>
       </c>
@@ -15603,7 +15592,7 @@
         <v>312000</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" s="2">
         <v>44501</v>
       </c>
@@ -15627,7 +15616,7 @@
         <v>546000</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" s="2">
         <v>44531</v>
       </c>
@@ -15651,7 +15640,7 @@
         <v>249000</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" s="2">
         <v>44562</v>
       </c>
@@ -15675,7 +15664,7 @@
         <v>510000</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" s="2">
         <v>44593</v>
       </c>
@@ -15699,7 +15688,7 @@
         <v>481000</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" s="2">
         <v>44621</v>
       </c>
@@ -15723,7 +15712,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" s="2">
         <v>44652</v>
       </c>
@@ -15747,7 +15736,7 @@
         <v>428000</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" s="2">
         <v>44682</v>
       </c>
@@ -15771,7 +15760,7 @@
         <v>436000</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" s="2">
         <v>44713</v>
       </c>
@@ -15795,7 +15784,7 @@
         <v>384000</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" s="2">
         <v>44743</v>
       </c>
@@ -15819,7 +15808,7 @@
         <v>398000</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" s="2">
         <v>44774</v>
       </c>
@@ -15843,7 +15832,7 @@
         <v>526000</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" s="2">
         <v>44805</v>
       </c>
@@ -15867,7 +15856,7 @@
         <v>315000</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" s="2">
         <v>44835</v>
       </c>
@@ -15891,7 +15880,7 @@
         <v>315000</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" s="2">
         <v>44866</v>
       </c>
@@ -15915,7 +15904,7 @@
         <v>284000</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" s="2">
         <v>44896</v>
       </c>
@@ -15939,7 +15928,7 @@
         <v>256000</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" s="2">
         <v>44927</v>
       </c>
@@ -15963,7 +15952,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" s="2">
         <v>44958</v>
       </c>
@@ -15987,7 +15976,7 @@
         <v>504000</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641" s="2">
         <v>44986</v>
       </c>
@@ -16011,7 +16000,7 @@
         <v>326000</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642" s="2">
         <v>45017</v>
       </c>
@@ -16035,7 +16024,7 @@
         <v>165000</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643" s="2">
         <v>45047</v>
       </c>
@@ -16074,7 +16063,7 @@
         <v>294000</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" s="2">
         <v>45078</v>
       </c>
@@ -16098,7 +16087,7 @@
         <v>306000</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645" s="2">
         <v>45108</v>
       </c>
@@ -16122,7 +16111,7 @@
         <v>185000</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646" s="2">
         <v>45139</v>
       </c>
@@ -16146,7 +16135,7 @@
         <v>157000</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647" s="2">
         <v>45170</v>
       </c>
@@ -16170,7 +16159,7 @@
         <v>227000</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648" s="2">
         <v>45200</v>
       </c>
@@ -16194,7 +16183,7 @@
         <v>297000</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" s="2">
         <v>45231</v>
       </c>
@@ -16218,7 +16207,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650" s="2">
         <v>45261</v>
       </c>
@@ -16242,7 +16231,7 @@
         <v>173000</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" s="2">
         <v>45292</v>
       </c>
@@ -16266,7 +16255,7 @@
         <v>333000</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652" s="2">
         <v>45323</v>
       </c>
@@ -16290,7 +16279,7 @@
         <v>229000</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653" s="2">
         <v>45352</v>
       </c>
@@ -16314,7 +16303,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654" s="2">
         <v>45383</v>
       </c>
@@ -16338,7 +16327,7 @@
         <v>315000</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655" s="2">
         <v>45413</v>
       </c>
@@ -16362,7 +16351,7 @@
         <v>165000</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656" s="2">
         <v>45444</v>
       </c>
@@ -16386,7 +16375,7 @@
         <v>218000</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" s="2">
         <v>45474</v>
       </c>
@@ -16410,7 +16399,7 @@
         <v>179000</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" s="2">
         <v>45505</v>
       </c>
@@ -16434,7 +16423,7 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" s="2">
         <v>45536</v>
       </c>
@@ -16458,7 +16447,7 @@
         <v>159000</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660" s="2">
         <v>45566</v>
       </c>
@@ -16482,7 +16471,7 @@
         <v>223000</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661" s="2">
         <v>45597</v>
       </c>
@@ -16506,7 +16495,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" s="2">
         <v>45627</v>
       </c>
@@ -16530,7 +16519,7 @@
         <v>212000</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" s="2">
         <v>45658</v>
       </c>
@@ -16554,7 +16543,7 @@
         <v>307000</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" s="2">
         <v>45689</v>
       </c>
@@ -16578,7 +16567,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" s="2">
         <v>45717</v>
       </c>
@@ -16602,7 +16591,7 @@
         <v>117000</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666" s="2">
         <v>45748</v>
       </c>
@@ -16626,7 +16615,7 @@
         <v>185000</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" s="2">
         <v>45778</v>
       </c>
@@ -16650,7 +16639,7 @@
         <v>147000</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" s="2">
         <v>45809</v>
       </c>
@@ -16674,7 +16663,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669" s="2">
         <v>45839</v>
       </c>
@@ -16698,7 +16687,7 @@
         <v>-13000</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670" s="2">
         <v>45870</v>
       </c>
@@ -16722,7 +16711,7 @@
         <v>79000</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" s="2">
         <v>45901</v>
       </c>
@@ -16746,7 +16735,7 @@
         <v>-4000</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" s="2">
         <v>45931</v>
       </c>
@@ -16767,7 +16756,7 @@
         <v>108000</v>
       </c>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673" s="2">
         <v>45962</v>
       </c>
@@ -16791,7 +16780,7 @@
         <v>-105000</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" s="2">
         <v>45992</v>
       </c>
@@ -16805,11 +16794,14 @@
         <f t="shared" si="10"/>
         <v>UTC-5</v>
       </c>
+      <c r="E674" s="3">
+        <v>50000</v>
+      </c>
       <c r="F674" s="3">
-        <v>57000</v>
+        <v>66000</v>
       </c>
       <c r="G674" s="3">
-        <v>64000</v>
+        <v>56000</v>
       </c>
     </row>
   </sheetData>
